--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2336677.87938574</v>
+        <v>2334790.297869337</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>186.815174149556</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.9313784350747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>163.9206648785249</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822705</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9206648785251</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761436</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.01153903325434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>112.2792196973213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352449</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>29.32201570294598</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.843519215192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>87.65220976162027</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.4433890341029</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151916</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.99894609865703</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>39.72583251028874</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373635</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.345729894537</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.080031287786</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.291778689542</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>723.3058738999346</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2531.572661847995</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2531.572661847995</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416162</v>
+        <v>1528.349585887291</v>
       </c>
       <c r="C8" t="n">
-        <v>240.3883158012044</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500976</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1881.118241157405</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887291</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1528.349585887291</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057379</v>
+        <v>1528.349585887291</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,16 +5042,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570735</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201129</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220956</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>761.5137598931742</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562135</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>199.5300356889271</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5601,19 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>199.5300356889269</v>
       </c>
       <c r="C22" t="n">
-        <v>441.900558318119</v>
+        <v>199.5300356889269</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>199.5300356889269</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,25 +5990,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>354.690860005991</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>354.690860005991</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.0599571744617</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.0599571744617</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>248.1700096765514</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170372</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.745737204986</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584498</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274848</v>
+        <v>232.001338176718</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>232.001338176718</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>232.001338176718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>232.001338176718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>137.3441950060321</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652456</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652456</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2103.010087623273</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6841,10 +6841,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,28 +6871,28 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6917,37 +6917,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,16 +6956,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7558,19 +7558,19 @@
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783528</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52.4973336130526</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.488938686166</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>113.6026921294549</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>230.7151863772044</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.500217918085</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.8380490462292</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.5731143188405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>78.54216539558242</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>139.8584236265067</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.1443537485703</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>119.2934573152664</v>
+        <v>47.3256582318577</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338534</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904745</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>17.05017942927473</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338569</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.62977745472327</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542613</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>868584.3643559306</v>
+        <v>868584.3643559307</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327924</v>
@@ -26329,31 +26329,31 @@
         <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833784</v>
+        <v>569550.9922833787</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049983</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="F4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.2921356357</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275965</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275953</v>
+        <v>37464.45686275963</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241778</v>
+        <v>-254872.6766241776</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903672</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425919</v>
+        <v>-84849.80754023149</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626368</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626368</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366645</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626366</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700436</v>
+        <v>263887.0097440716</v>
       </c>
       <c r="K6" t="n">
-        <v>395549.8863146744</v>
+        <v>395531.3925767402</v>
       </c>
       <c r="L6" t="n">
-        <v>429206.7694213467</v>
+        <v>429206.7694213464</v>
       </c>
       <c r="M6" t="n">
-        <v>304748.660988376</v>
+        <v>304748.6609883762</v>
       </c>
       <c r="N6" t="n">
-        <v>439549.6762222138</v>
+        <v>439549.676222214</v>
       </c>
       <c r="O6" t="n">
-        <v>439549.6762222137</v>
+        <v>439549.6762222134</v>
       </c>
       <c r="P6" t="n">
-        <v>395387.0709193673</v>
+        <v>395387.0709193677</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>226.968995871239</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.6532749170201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>10.49504793044665</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887371</v>
       </c>
       <c r="D8" t="n">
-        <v>190.7623767421578</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562136</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,31 +33348,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,31 +33585,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,31 +33822,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,31 +34059,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>385.6919070110654</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>583.2963240761467</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>320.6961070609795</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>437.808601308729</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,16 +37233,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>724.9245949685511</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313033</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
